--- a/マージ練習/練習内容.xlsx
+++ b/マージ練習/練習内容.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d623b0613d49d56a/デスクトップ/マージ練習/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D066CA252ABDACC1048689914FA8E73EEDF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA843F7-76D9-481E-8CA8-9E031F414FE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04363542-032C-485B-A643-1EF557D29488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,7 +1668,21 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　：　マイナーバージョンを上げる 例）</a:t>
+            <a:t>　：　マイナーバージョンを最新より</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>上げる 例）</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
